--- a/sac/Book1.xlsx
+++ b/sac/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinak\Desktop\Projects\sac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C912C1-B80A-4BD8-B28E-80B090895FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35977580-B40D-401B-84A6-C4813B69DACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3844994C-51BD-4CDA-BB22-23B9EF59B117}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Roll Number</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>P.Dinakar</t>
+  </si>
+  <si>
+    <t>SIL2106</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,6 +455,9 @@
       <c r="A3">
         <v>2210030042</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
